--- a/data/title_intersections.xlsx
+++ b/data/title_intersections.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E313741-1189-473F-94F0-D8EB7F229966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6417CD-961F-4DC6-8C1B-DE0C42DEABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title_intersections" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1009,11 +1009,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +1207,7 @@
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>38</v>
       </c>
     </row>

--- a/data/title_intersections.xlsx
+++ b/data/title_intersections.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6417CD-961F-4DC6-8C1B-DE0C42DEABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA4D43-C0D4-463D-80DB-360E1052F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title_intersections" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Daniel, Jerome, Ann</t>
   </si>
@@ -161,6 +174,24 @@
   </si>
   <si>
     <t>Process Prediction with Digital Twins</t>
+  </si>
+  <si>
+    <t>Interface Development for Digital Twin of an Electric Motor Based on Empirical Performance Model</t>
+  </si>
+  <si>
+    <t>Combining Low-Code Programming and SDL-Based Modeling with Snap! in the Industry 4.0 Context</t>
+  </si>
+  <si>
+    <t>A Methodology for Digital Twin Modeling and Deployment for Industry 4.0</t>
+  </si>
+  <si>
+    <t>Digital Twins Driving Model Based on Petri Net in Industrial Pipeline</t>
+  </si>
+  <si>
+    <t>Automated Model Transformation in modeling Digital Twins of Industrial Internet-of-Things Applications utilizing AutomationML</t>
+  </si>
+  <si>
+    <t>Proof of Concept for a Roundtrip Engineering IS for the New Enterprise in the Industry 4.0 Era</t>
   </si>
 </sst>
 </file>
@@ -310,7 +341,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +519,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -651,10 +688,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,20 +1048,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="116.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" customWidth="1"/>
+    <col min="2" max="2" width="116.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.41796875" customWidth="1"/>
+    <col min="4" max="4" width="51.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1037,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1054,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1071,13 +1109,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1085,13 +1126,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1099,13 +1143,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1113,13 +1160,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1177,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1141,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1155,7 +1208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1169,7 +1222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1183,7 +1236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1197,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1211,7 +1264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1222,7 +1275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1233,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1244,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1253,6 +1306,11 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/title_intersections.xlsx
+++ b/data/title_intersections.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerom\Documents\projects\mde4dts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BA4D43-C0D4-463D-80DB-360E1052F012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB26952-0459-484B-93C0-CCFD4356350A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34790" yWindow="3690" windowWidth="32690" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="title_intersections" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,17 +1051,17 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="116.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.41796875" customWidth="1"/>
-    <col min="4" max="4" width="51.26171875" customWidth="1"/>
+    <col min="2" max="2" width="116.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.453125" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1109,14 +1109,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1126,14 +1126,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1143,7 +1143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1160,14 +1160,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1177,7 +1177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>47</v>
       </c>
